--- a/biology/Botanique/Assemblage_(bois)/Assemblage_(bois).xlsx
+++ b/biology/Botanique/Assemblage_(bois)/Assemblage_(bois).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un assemblage de bois désigne l'union et la jonction de deux ou de plus de parties ensemble[1],[2]. Les métiers du bois distinguent différents types d'assemblage qui sont détaillés ici.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un assemblage de bois désigne l'union et la jonction de deux ou de plus de parties ensemble,. Les métiers du bois distinguent différents types d'assemblage qui sont détaillés ici.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Menuiserie et charpente</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a trois sortes d'assemblages plus spécialement connus dans les arts du menuisier et du charpentier: l'assemblage en bout, de bout ou de rallonge, l'assemblage chant sur chant et l'assemblage angulaire. Chacune de ces trois manières d'assemblage se subdivise en assemblages entre pièces d'épaisseurs égales et pièces d'épaisseurs différentes[3].
-Les assemblages en bout sont employés pour rallonger les pièces de bois; les charpentiers en faisaient un usage plus fréquent que les menuisiers. Les plus connus de ces assemblages sont les assemblages en sifflet et « en traits de Jupiter »[3].
-Les assemblages de champ[3] ou assemblages chant sur chant[4] ont lieu pour élargir les pièces pour obtenir par leur réunion des largeurs qu'on ne pourrait avoir d'un seul morceau. Le plus connu de ces assemblages est l'Assemblage à rainure et languette[3].
-Les assemblages angulaires ou assemblages en angle (ou assemblage sur chant, en anglais angle joint ou corner joint), sont l'assemblage de deux pièces de bois formant entre elles un angle quelconque; les principaux se forment par la réunion des deux pièces un angle droit (on disait autrefois « carrément »)[3], utilisés aussi pour la réalisation de tiroirs ou pour tout ouvrage d'assemblage ayant une forme rectangulaire[5]. Nombreux[3][Quoi ?]. Un assemblage en angle à plat-joint (en anglais butt joint) est un type d'assemblage en angle dans lequel deux membrures d'un matériau quelconque sont jointifs par leurs extrémités, sans aucune mise en forme particulière, sans aucun embrèvement (à plat-joint).
-Les assemblages comportent un embrèvement (l'une des pièces possède une languette ou un tenon destinés à s'emmancher dans une rainure ou une mortaise sur l'autre pièce) ou sont assemblage à plat-joint[6] de diverses manières (collage, clouage, vissage, clé à queue d'aronde, chevillage, etc.).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a trois sortes d'assemblages plus spécialement connus dans les arts du menuisier et du charpentier: l'assemblage en bout, de bout ou de rallonge, l'assemblage chant sur chant et l'assemblage angulaire. Chacune de ces trois manières d'assemblage se subdivise en assemblages entre pièces d'épaisseurs égales et pièces d'épaisseurs différentes.
+Les assemblages en bout sont employés pour rallonger les pièces de bois; les charpentiers en faisaient un usage plus fréquent que les menuisiers. Les plus connus de ces assemblages sont les assemblages en sifflet et « en traits de Jupiter ».
+Les assemblages de champ ou assemblages chant sur chant ont lieu pour élargir les pièces pour obtenir par leur réunion des largeurs qu'on ne pourrait avoir d'un seul morceau. Le plus connu de ces assemblages est l'Assemblage à rainure et languette.
+Les assemblages angulaires ou assemblages en angle (ou assemblage sur chant, en anglais angle joint ou corner joint), sont l'assemblage de deux pièces de bois formant entre elles un angle quelconque; les principaux se forment par la réunion des deux pièces un angle droit (on disait autrefois « carrément »), utilisés aussi pour la réalisation de tiroirs ou pour tout ouvrage d'assemblage ayant une forme rectangulaire. Nombreux[Quoi ?]. Un assemblage en angle à plat-joint (en anglais butt joint) est un type d'assemblage en angle dans lequel deux membrures d'un matériau quelconque sont jointifs par leurs extrémités, sans aucune mise en forme particulière, sans aucun embrèvement (à plat-joint).
+Les assemblages comportent un embrèvement (l'une des pièces possède une languette ou un tenon destinés à s'emmancher dans une rainure ou une mortaise sur l'autre pièce) ou sont assemblage à plat-joint de diverses manières (collage, clouage, vissage, clé à queue d'aronde, chevillage, etc.).
 La menuiserie et la charpenterie emploient les assemblages suivants :
 </t>
         </is>
